--- a/DataSetMostCommonStorageAmountNeeded.xlsx
+++ b/DataSetMostCommonStorageAmountNeeded.xlsx
@@ -423,7 +423,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
